--- a/2/data/loaitruong.xlsx
+++ b/2/data/loaitruong.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buivu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buivu\Downloads\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD8F6E3E-D1E5-4490-9970-523309362EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519DDB9A-B433-4398-961A-0A05778D3DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DC254833-A69F-46A0-9AA6-07E9AD9B4058}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>loaitruong</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Trường phổ thông</t>
   </si>
@@ -62,9 +59,6 @@
     <t>GDNNTX</t>
   </si>
   <si>
-    <t>TT GDNN - GDTX</t>
-  </si>
-  <si>
     <t>PTHONG</t>
   </si>
   <si>
@@ -84,13 +78,22 @@
   </si>
   <si>
     <t>tenloaitruong</t>
+  </si>
+  <si>
+    <t>TT GDNN - GDTX (Sát nhập theo TTLT số 39/2015)</t>
+  </si>
+  <si>
+    <t>Trường chuyên</t>
+  </si>
+  <si>
+    <t>CHUYE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +107,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,16 +155,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CB87AF8E-500E-4FE1-B035-EBDBD6726013}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,7 +485,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,38 +496,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -512,15 +537,15 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -532,11 +557,11 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/2/data/loaitruong.xlsx
+++ b/2/data/loaitruong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buivu\Downloads\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519DDB9A-B433-4398-961A-0A05778D3DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61940173-973F-49C3-860B-C98FE623CFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DC254833-A69F-46A0-9AA6-07E9AD9B4058}"/>
   </bookViews>
@@ -86,7 +86,7 @@
     <t>Trường chuyên</t>
   </si>
   <si>
-    <t>CHUYE</t>
+    <t>CHUYEN</t>
   </si>
 </sst>
 </file>
@@ -159,14 +159,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +484,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,10 +556,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
